--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -373,6 +373,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -404,6 +407,9 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>36.972427368164098</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoName\Documents\RadarClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RazumovSa\Documents\Visual Studio 2015\Projects\RadarClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,6 +101,1113 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$O$2:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.972427368164098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.034397125244098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$P$2:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>54.985223689797202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.011029518750597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$O$4:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.995344161987198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.036199569701999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$P$4:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>54.997659937133101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.019364741149801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$O$6:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.966419219970703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.004528045654197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$P$6:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>54.997610594594804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.019266109640597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$O$8:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.9952583312988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.036371231079102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$P$8:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>54.9803863259623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.003037908411997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$O$10:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.967363357543903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.0044422149657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$P$10:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>54.980633144413403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.002889900544602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="238774576"/>
+        <c:axId val="238773400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="238774576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="238773400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="238773400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="238774576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,15 +1473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -400,32 +1507,273 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>36.972427368164098</v>
+      </c>
+      <c r="C2">
+        <v>54.985223689797202</v>
+      </c>
+      <c r="D2">
+        <v>37.034397125244098</v>
+      </c>
+      <c r="E2">
+        <v>55.011029518750597</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>199</v>
+      </c>
+      <c r="I2">
+        <v>199</v>
+      </c>
+      <c r="O2">
+        <v>36.972427368164098</v>
+      </c>
+      <c r="P2">
+        <v>54.985223689797202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>36.995344161987198</v>
+      </c>
+      <c r="C3">
+        <v>54.997659937133101</v>
+      </c>
+      <c r="D3">
+        <v>37.036199569701999</v>
+      </c>
+      <c r="E3">
+        <v>55.019364741149801</v>
+      </c>
+      <c r="J3">
+        <v>74</v>
+      </c>
+      <c r="K3">
+        <v>96</v>
+      </c>
+      <c r="L3">
+        <v>199</v>
+      </c>
+      <c r="M3">
+        <v>198</v>
+      </c>
+      <c r="O3">
+        <v>37.034397125244098</v>
+      </c>
+      <c r="P3">
+        <v>55.011029518750597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>36.966419219970703</v>
+      </c>
+      <c r="C4">
+        <v>54.997610594594804</v>
+      </c>
+      <c r="D4">
+        <v>37.004528045654197</v>
+      </c>
+      <c r="E4">
+        <v>55.019266109640597</v>
+      </c>
+      <c r="O4">
+        <v>36.995344161987198</v>
+      </c>
+      <c r="P4">
+        <v>54.997659937133101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>36.9952583312988</v>
+      </c>
+      <c r="C5">
+        <v>54.9803863259623</v>
+      </c>
+      <c r="D5">
+        <v>37.036371231079102</v>
+      </c>
+      <c r="E5">
+        <v>55.003037908411997</v>
+      </c>
+      <c r="O5">
+        <v>37.036199569701999</v>
+      </c>
+      <c r="P5">
+        <v>55.019364741149801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>36.967363357543903</v>
+      </c>
+      <c r="C6">
+        <v>54.980633144413403</v>
+      </c>
+      <c r="D6">
+        <v>37.0044422149657</v>
+      </c>
+      <c r="E6">
+        <v>55.002889900544602</v>
+      </c>
+      <c r="O6">
+        <v>36.966419219970703</v>
+      </c>
+      <c r="P6">
+        <v>54.997610594594804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>37.034397125244098</v>
+      </c>
+      <c r="C7">
+        <v>55.011029518750597</v>
+      </c>
+      <c r="O7">
+        <v>37.004528045654197</v>
+      </c>
+      <c r="P7">
+        <v>55.019266109640597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>37.036199569701999</v>
+      </c>
+      <c r="C8">
+        <v>55.019364741149801</v>
+      </c>
+      <c r="O8">
+        <v>36.9952583312988</v>
+      </c>
+      <c r="P8">
+        <v>54.9803863259623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>37.004528045654197</v>
+      </c>
+      <c r="C9">
+        <v>55.019266109640597</v>
+      </c>
+      <c r="O9">
+        <v>37.036371231079102</v>
+      </c>
+      <c r="P9">
+        <v>55.003037908411997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>37.036371231079102</v>
+      </c>
+      <c r="C10">
+        <v>55.003037908411997</v>
+      </c>
+      <c r="O10">
+        <v>36.967363357543903</v>
+      </c>
+      <c r="P10">
+        <v>54.980633144413403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>37.0044422149657</v>
+      </c>
+      <c r="C11">
+        <v>55.002889900544602</v>
+      </c>
+      <c r="O11">
+        <v>37.0044422149657</v>
+      </c>
+      <c r="P11">
+        <v>55.002889900544602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>36.967363357543903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>54.980633144413403</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>37.0044422149657</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>55.002889900544602</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>MIN(B3:B6)</f>
+        <v>36.966419219970703</v>
+      </c>
+      <c r="C23">
+        <f>MIN(C3:C6)</f>
+        <v>54.9803863259623</v>
+      </c>
+      <c r="D23">
+        <f>MAX(D3:D6)</f>
+        <v>37.036371231079102</v>
+      </c>
+      <c r="E23">
+        <f>MAX(E3:E6)</f>
+        <v>55.019364741149801</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f>E30/2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f>E30/3</f>
+        <v>23.333333333333332</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>x0</t>
   </si>
@@ -49,12 +51,411 @@
   <si>
     <t>lat1</t>
   </si>
+  <si>
+    <t>+ Options</t>
+  </si>
+  <si>
+    <t>sum(quantity)</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>added_by_user_id</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>дней до пати</t>
+  </si>
+  <si>
+    <t>осень 2015</t>
+  </si>
+  <si>
+    <t>осень 2016</t>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF235A81"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(paymentdate), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF235A81"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(quantity), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF235A81"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(quantity * price) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF770088"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0055AA"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>`t_payment`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF770088"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> event_id=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF235A81"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF770088"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> &lt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAA1111"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF235A81"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> price&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF770088"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF770088"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF235A81"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(paymentdate) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF770088"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF770088"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF235A81"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(paymentdate)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +464,116 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF770088"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF235A81"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF444444"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0055AA"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF116644"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFAA1111"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFDFDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -80,14 +581,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFCC99"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFCC99"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFCC99"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFCC99"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFCC99"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -179,6 +779,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$O$2:$O$3</c:f>
@@ -236,6 +880,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$O$4:$O$5</c:f>
@@ -293,6 +981,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$O$6:$O$7</c:f>
@@ -350,6 +1082,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$O$8:$O$9</c:f>
@@ -407,6 +1183,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$O$10:$O$11</c:f>
@@ -447,11 +1267,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238774576"/>
-        <c:axId val="238773400"/>
+        <c:axId val="329088648"/>
+        <c:axId val="329534960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238774576"/>
+        <c:axId val="329088648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,12 +1328,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238773400"/>
+        <c:crossAx val="329534960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238773400"/>
+        <c:axId val="329534960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,7 +1390,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238774576"/>
+        <c:crossAx val="329088648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -619,7 +1439,906 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>осень 2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист3!$N$3:$N$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$P$3:$P$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>осень 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$R$3:$R$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="329353584"/>
+        <c:axId val="329360112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="329353584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329360112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="329360112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329353584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1">
+          <a:alpha val="97000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1175,19 +2894,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1202,6 +3437,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3075" name="AutoShape 3" descr="Ascending">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3724275" y="6286500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>490536</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1476,7 +3790,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,4 +4090,2866 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>200</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <f>B4*A4</f>
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <f>D4</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1200</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D11" si="0">B5*A5</f>
+        <v>36000</v>
+      </c>
+      <c r="E5">
+        <f>D5</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1200</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2705</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+      <c r="F6">
+        <f>D6</f>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>47</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>70500</v>
+      </c>
+      <c r="E7">
+        <f>D7</f>
+        <v>70500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2743</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>19500</v>
+      </c>
+      <c r="F8">
+        <f>D8</f>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>93</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1700</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>158100</v>
+      </c>
+      <c r="E9">
+        <f>D9</f>
+        <v>158100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1700</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2705</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+      <c r="F10">
+        <f>D10</f>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>56</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>112000</v>
+      </c>
+      <c r="E11">
+        <f>D11</f>
+        <v>112000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="displayoptions" display="https://box1146.bluehost.com:2083/cpsess9121161379/3rdparty/phpMyAdmin/sql.php?server=1&amp;db=bkfreaks_bbl&amp;table=t_user&amp;pos=0&amp;token=6d088087a3687a48a4f65e7265811ab6 - displayoptions"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://box1146.bluehost.com:2083/cpsess9121161379/3rdparty/phpMyAdmin/sql.php?db=bkfreaks_bbl&amp;table=t_payment&amp;sql_query=SELECT+sum%28quantity%29%2C+price%2C+added_by_user_id+FROM+%60t_payment%60+where+event_id%3D4+and+code+%3C%3E+%27%27+and+price%3E0+group+by+price%2C+added_by_user_id%0AORDER+BY+sum%28quantity%29+ASC&amp;session_max_rows=25&amp;token=6d088087a3687a48a4f65e7265811ab6"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://box1146.bluehost.com:2083/cpsess9121161379/3rdparty/phpMyAdmin/sql.php?db=bkfreaks_bbl&amp;table=t_payment&amp;sql_query=SELECT+sum%28quantity%29%2C+price%2C+added_by_user_id+FROM+%60t_payment%60+where+event_id%3D4+and+code+%3C%3E+%27%27+and+price%3E0+group+by+price%2C+added_by_user_id%0AORDER+BY+%60t_payment%60.%60price%60+ASC&amp;session_max_rows=25&amp;token=6d088087a3687a48a4f65e7265811ab6"/>
+    <hyperlink ref="C3" r:id="rId4" display="https://box1146.bluehost.com:2083/cpsess9121161379/3rdparty/phpMyAdmin/sql.php?db=bkfreaks_bbl&amp;table=t_payment&amp;sql_query=SELECT+sum%28quantity%29%2C+price%2C+added_by_user_id+FROM+%60t_payment%60+where+event_id%3D4+and+code+%3C%3E+%27%27+and+price%3E0+group+by+price%2C+added_by_user_id%0AORDER+BY+%60t_payment%60.%60added_by_user_id%60+ASC&amp;session_max_rows=25&amp;token=6d088087a3687a48a4f65e7265811ab6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>$B$41-B2</f>
+        <v>66</v>
+      </c>
+      <c r="B2" s="15">
+        <v>42570</v>
+      </c>
+      <c r="C2" s="16">
+        <v>30</v>
+      </c>
+      <c r="D2" s="16">
+        <v>37200</v>
+      </c>
+      <c r="E2" s="12">
+        <f>C2</f>
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <f>$H$41-H2</f>
+        <v>60</v>
+      </c>
+      <c r="H2" s="18">
+        <v>42205</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K2" s="12">
+        <f>I2</f>
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A32" si="0">$B$41-B3</f>
+        <v>65</v>
+      </c>
+      <c r="B3" s="13">
+        <v>42571</v>
+      </c>
+      <c r="C3" s="14">
+        <v>52</v>
+      </c>
+      <c r="D3" s="14">
+        <v>77600</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C3+E2</f>
+        <v>82</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G41" si="1">$H$41-H3</f>
+        <v>58</v>
+      </c>
+      <c r="H3" s="19">
+        <v>42207</v>
+      </c>
+      <c r="I3" s="7">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7">
+        <v>4000</v>
+      </c>
+      <c r="K3" s="12">
+        <f>I3+K2</f>
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>66</v>
+      </c>
+      <c r="O3" t="e">
+        <f t="shared" ref="O3:O34" si="2">VLOOKUP(N3,G:K,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P3">
+        <f>P2+IFERROR(O3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q34" si="3">VLOOKUP(N3,A:E,3,0)</f>
+        <v>30</v>
+      </c>
+      <c r="R3">
+        <f>R2+IFERROR(Q3,0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B4" s="15">
+        <v>42572</v>
+      </c>
+      <c r="C4" s="16">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" ref="E4:E32" si="4">C4+E3</f>
+        <v>87</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H4" s="18">
+        <v>42209</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" ref="K4:K41" si="5">I4+K3</f>
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>65</v>
+      </c>
+      <c r="O4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P67" si="6">P3+IFERROR(O4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R67" si="7">R3+IFERROR(Q4,0)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B5" s="13">
+        <v>42573</v>
+      </c>
+      <c r="C5" s="14">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14">
+        <v>19700</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="H5" s="19">
+        <v>42214</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>64</v>
+      </c>
+      <c r="O5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B6" s="15">
+        <v>42576</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1200</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="H6" s="18">
+        <v>42216</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>63</v>
+      </c>
+      <c r="O6" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B7" s="13">
+        <v>42580</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14">
+        <v>6800</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H7" s="19">
+        <v>42217</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>62</v>
+      </c>
+      <c r="O7" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B8" s="15">
+        <v>42583</v>
+      </c>
+      <c r="C8" s="16">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>3400</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="H8" s="18">
+        <v>42218</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>61</v>
+      </c>
+      <c r="O8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B9" s="13">
+        <v>42584</v>
+      </c>
+      <c r="C9" s="14">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14">
+        <v>5800</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H9" s="19">
+        <v>42220</v>
+      </c>
+      <c r="I9" s="7">
+        <v>9</v>
+      </c>
+      <c r="J9" s="7">
+        <v>9000</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>60</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B10" s="15">
+        <v>42585</v>
+      </c>
+      <c r="C10" s="16">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16">
+        <v>8300</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="H10" s="18">
+        <v>42221</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4">
+        <v>10000</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="N10">
+        <v>59</v>
+      </c>
+      <c r="O10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B11" s="13">
+        <v>42589</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3400</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="H11" s="19">
+        <v>42222</v>
+      </c>
+      <c r="I11" s="7">
+        <v>10</v>
+      </c>
+      <c r="J11" s="7">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="N11">
+        <v>58</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q11" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B12" s="15">
+        <v>42597</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="H12" s="18">
+        <v>42223</v>
+      </c>
+      <c r="I12" s="4">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4">
+        <v>9000</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="N12">
+        <v>57</v>
+      </c>
+      <c r="O12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B13" s="13">
+        <v>42600</v>
+      </c>
+      <c r="C13" s="14">
+        <v>9</v>
+      </c>
+      <c r="D13" s="14">
+        <v>15300</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H13" s="19">
+        <v>42226</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6</v>
+      </c>
+      <c r="J13" s="7">
+        <v>6000</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="N13">
+        <v>56</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B14" s="15">
+        <v>42601</v>
+      </c>
+      <c r="C14" s="16">
+        <v>22</v>
+      </c>
+      <c r="D14" s="16">
+        <v>37400</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="H14" s="18">
+        <v>42227</v>
+      </c>
+      <c r="I14" s="4">
+        <v>22</v>
+      </c>
+      <c r="J14" s="4">
+        <v>22000</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="N14">
+        <v>55</v>
+      </c>
+      <c r="O14" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Q14" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B15" s="13">
+        <v>42602</v>
+      </c>
+      <c r="C15" s="14">
+        <v>16</v>
+      </c>
+      <c r="D15" s="14">
+        <v>27200</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="H15" s="19">
+        <v>42228</v>
+      </c>
+      <c r="I15" s="7">
+        <v>9</v>
+      </c>
+      <c r="J15" s="7">
+        <v>8600</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="N15">
+        <v>54</v>
+      </c>
+      <c r="O15" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Q15" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B16" s="15">
+        <v>42603</v>
+      </c>
+      <c r="C16" s="16">
+        <v>20</v>
+      </c>
+      <c r="D16" s="16">
+        <v>34000</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H16" s="18">
+        <v>42229</v>
+      </c>
+      <c r="I16" s="4">
+        <v>33</v>
+      </c>
+      <c r="J16" s="4">
+        <v>33000</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="N16">
+        <v>53</v>
+      </c>
+      <c r="O16" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B17" s="13">
+        <v>42604</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H17" s="19">
+        <v>42230</v>
+      </c>
+      <c r="I17" s="7">
+        <v>27</v>
+      </c>
+      <c r="J17" s="7">
+        <v>27000</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="N17">
+        <v>52</v>
+      </c>
+      <c r="O17" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B18" s="15">
+        <v>42605</v>
+      </c>
+      <c r="C18" s="16">
+        <v>7</v>
+      </c>
+      <c r="D18" s="16">
+        <v>13400</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="H18" s="18">
+        <v>42231</v>
+      </c>
+      <c r="I18" s="4">
+        <v>50</v>
+      </c>
+      <c r="J18" s="4">
+        <v>50000</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="5"/>
+        <v>198</v>
+      </c>
+      <c r="N18">
+        <v>51</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B19" s="13">
+        <v>42606</v>
+      </c>
+      <c r="C19" s="14">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14">
+        <v>4000</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="4"/>
+        <v>197</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H19" s="19">
+        <v>42232</v>
+      </c>
+      <c r="I19" s="7">
+        <v>25</v>
+      </c>
+      <c r="J19" s="7">
+        <v>25000</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="5"/>
+        <v>223</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+      <c r="O19" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Q19" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B20" s="15">
+        <v>42607</v>
+      </c>
+      <c r="C20" s="16">
+        <v>5</v>
+      </c>
+      <c r="D20" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="4"/>
+        <v>202</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="H20" s="18">
+        <v>42233</v>
+      </c>
+      <c r="I20" s="4">
+        <v>15</v>
+      </c>
+      <c r="J20" s="4">
+        <v>15900</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="5"/>
+        <v>238</v>
+      </c>
+      <c r="N20">
+        <v>49</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q20" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B21" s="13">
+        <v>42608</v>
+      </c>
+      <c r="C21" s="14">
+        <v>4</v>
+      </c>
+      <c r="D21" s="14">
+        <v>7400</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="4"/>
+        <v>206</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="H21" s="19">
+        <v>42234</v>
+      </c>
+      <c r="I21" s="7">
+        <v>5</v>
+      </c>
+      <c r="J21" s="7">
+        <v>5500</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="N21">
+        <v>48</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="Q21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B22" s="15">
+        <v>42609</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="4"/>
+        <v>207</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H22" s="18">
+        <v>42235</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6</v>
+      </c>
+      <c r="J22" s="4">
+        <v>8000</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="5"/>
+        <v>249</v>
+      </c>
+      <c r="N22">
+        <v>47</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B23" s="13">
+        <v>42611</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="4"/>
+        <v>208</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H23" s="19">
+        <v>42236</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4</v>
+      </c>
+      <c r="J23" s="7">
+        <v>5000</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="5"/>
+        <v>253</v>
+      </c>
+      <c r="N23">
+        <v>46</v>
+      </c>
+      <c r="O23" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="Q23" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>42613</v>
+      </c>
+      <c r="C24" s="16">
+        <v>2</v>
+      </c>
+      <c r="D24" s="16">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H24" s="18">
+        <v>42237</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>3000</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="N24">
+        <v>45</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="Q24" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="13">
+        <v>42615</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="4"/>
+        <v>211</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H25" s="19">
+        <v>42240</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="N25">
+        <v>44</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="Q25" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="13">
+        <v>42616</v>
+      </c>
+      <c r="C26" s="14">
+        <v>4</v>
+      </c>
+      <c r="D26" s="14">
+        <v>8000</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="4"/>
+        <v>215</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H26" s="18">
+        <v>42241</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4">
+        <v>4500</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="5"/>
+        <v>259</v>
+      </c>
+      <c r="N26">
+        <v>43</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="Q26" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="15">
+        <v>42617</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H27" s="20">
+        <v>42242</v>
+      </c>
+      <c r="I27" s="21">
+        <v>2</v>
+      </c>
+      <c r="J27" s="21">
+        <v>3000</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" si="5"/>
+        <v>261</v>
+      </c>
+      <c r="N27">
+        <v>42</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="Q27" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B28" s="13">
+        <v>42618</v>
+      </c>
+      <c r="C28" s="14">
+        <v>11</v>
+      </c>
+      <c r="D28" s="14">
+        <v>20200</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="4"/>
+        <v>227</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H28" s="15">
+        <v>42245</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1</v>
+      </c>
+      <c r="J28" s="16">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="5"/>
+        <v>262</v>
+      </c>
+      <c r="N28">
+        <v>41</v>
+      </c>
+      <c r="O28" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="Q28" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B29" s="15">
+        <v>42619</v>
+      </c>
+      <c r="C29" s="16">
+        <v>11</v>
+      </c>
+      <c r="D29" s="16">
+        <v>21200</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H29" s="13">
+        <v>42249</v>
+      </c>
+      <c r="I29" s="14">
+        <v>4</v>
+      </c>
+      <c r="J29" s="14">
+        <v>6000</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" si="5"/>
+        <v>266</v>
+      </c>
+      <c r="N29">
+        <v>40</v>
+      </c>
+      <c r="O29" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="Q29" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B30" s="13">
+        <v>42620</v>
+      </c>
+      <c r="C30" s="14">
+        <v>8</v>
+      </c>
+      <c r="D30" s="14">
+        <v>16000</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="4"/>
+        <v>246</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H30" s="15">
+        <v>42251</v>
+      </c>
+      <c r="I30" s="16">
+        <v>2</v>
+      </c>
+      <c r="J30" s="16">
+        <v>2500</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="5"/>
+        <v>268</v>
+      </c>
+      <c r="N30">
+        <v>39</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B31" s="15">
+        <v>42621</v>
+      </c>
+      <c r="C31" s="16">
+        <v>4</v>
+      </c>
+      <c r="D31" s="16">
+        <v>7400</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H31" s="13">
+        <v>42252</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1</v>
+      </c>
+      <c r="J31" s="14">
+        <v>1500</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="5"/>
+        <v>269</v>
+      </c>
+      <c r="N31">
+        <v>38</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="Q31" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B32" s="13">
+        <v>42622</v>
+      </c>
+      <c r="C32" s="14">
+        <v>3</v>
+      </c>
+      <c r="D32" s="14">
+        <v>6000</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H32" s="15">
+        <v>42254</v>
+      </c>
+      <c r="I32" s="16">
+        <v>2</v>
+      </c>
+      <c r="J32" s="16">
+        <v>3000</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="5"/>
+        <v>271</v>
+      </c>
+      <c r="N32">
+        <v>37</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="Q32" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H33" s="13">
+        <v>42255</v>
+      </c>
+      <c r="I33" s="14">
+        <v>11</v>
+      </c>
+      <c r="J33" s="14">
+        <v>15000</v>
+      </c>
+      <c r="K33" s="12">
+        <f>I33+K32</f>
+        <v>282</v>
+      </c>
+      <c r="N33">
+        <v>36</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H34" s="15">
+        <v>42256</v>
+      </c>
+      <c r="I34" s="16">
+        <v>5</v>
+      </c>
+      <c r="J34" s="16">
+        <v>7000</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="5"/>
+        <v>287</v>
+      </c>
+      <c r="N34">
+        <v>35</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="7"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H35" s="13">
+        <v>42257</v>
+      </c>
+      <c r="I35" s="14">
+        <v>7</v>
+      </c>
+      <c r="J35" s="14">
+        <v>10500</v>
+      </c>
+      <c r="K35" s="12">
+        <f t="shared" si="5"/>
+        <v>294</v>
+      </c>
+      <c r="N35">
+        <v>34</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O66" si="8">VLOOKUP(N35,G:K,3,0)</f>
+        <v>50</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>198</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35:Q69" si="9">VLOOKUP(N35,A:E,3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="7"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H36" s="15">
+        <v>42258</v>
+      </c>
+      <c r="I36" s="16">
+        <v>4</v>
+      </c>
+      <c r="J36" s="16">
+        <v>5000</v>
+      </c>
+      <c r="K36" s="12">
+        <f t="shared" si="5"/>
+        <v>298</v>
+      </c>
+      <c r="N36">
+        <v>33</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>223</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="7"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H37" s="13">
+        <v>42261</v>
+      </c>
+      <c r="I37" s="14">
+        <v>29</v>
+      </c>
+      <c r="J37" s="14">
+        <v>42700</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" si="5"/>
+        <v>327</v>
+      </c>
+      <c r="N37">
+        <v>32</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>238</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="7"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H38" s="15">
+        <v>42262</v>
+      </c>
+      <c r="I38" s="16">
+        <v>34</v>
+      </c>
+      <c r="J38" s="16">
+        <v>50500</v>
+      </c>
+      <c r="K38" s="12">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="N38">
+        <v>31</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>243</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="7"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H39" s="13">
+        <v>42263</v>
+      </c>
+      <c r="I39" s="14">
+        <v>63</v>
+      </c>
+      <c r="J39" s="14">
+        <v>94000</v>
+      </c>
+      <c r="K39" s="12">
+        <f t="shared" si="5"/>
+        <v>424</v>
+      </c>
+      <c r="N39">
+        <v>30</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>249</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="7"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="15">
+        <v>42264</v>
+      </c>
+      <c r="I40" s="16">
+        <v>87</v>
+      </c>
+      <c r="J40" s="16">
+        <v>128700</v>
+      </c>
+      <c r="K40" s="12">
+        <f t="shared" si="5"/>
+        <v>511</v>
+      </c>
+      <c r="N40">
+        <v>29</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>253</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="7"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="17">
+        <v>42636</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <v>42265</v>
+      </c>
+      <c r="I41" s="14">
+        <v>6</v>
+      </c>
+      <c r="J41" s="14">
+        <v>7000</v>
+      </c>
+      <c r="K41" s="12">
+        <f t="shared" si="5"/>
+        <v>517</v>
+      </c>
+      <c r="N41">
+        <v>28</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="7"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>27</v>
+      </c>
+      <c r="O42" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>26</v>
+      </c>
+      <c r="O43" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="Q43" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>25</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="6"/>
+        <v>256</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>24</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="6"/>
+        <v>259</v>
+      </c>
+      <c r="Q45" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>23</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="6"/>
+        <v>261</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>22</v>
+      </c>
+      <c r="O47" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>261</v>
+      </c>
+      <c r="Q47" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>21</v>
+      </c>
+      <c r="O48" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="6"/>
+        <v>261</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="7"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>20</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="6"/>
+        <v>262</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>19</v>
+      </c>
+      <c r="O50" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="6"/>
+        <v>262</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>18</v>
+      </c>
+      <c r="O51" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="6"/>
+        <v>262</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="7"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>17</v>
+      </c>
+      <c r="O52" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="6"/>
+        <v>262</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="7"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>16</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="6"/>
+        <v>266</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="7"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>15</v>
+      </c>
+      <c r="O54" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="6"/>
+        <v>266</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>14</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="6"/>
+        <v>268</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>13</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="6"/>
+        <v>269</v>
+      </c>
+      <c r="Q56" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>12</v>
+      </c>
+      <c r="O57" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="6"/>
+        <v>269</v>
+      </c>
+      <c r="Q57" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>11</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="6"/>
+        <v>271</v>
+      </c>
+      <c r="Q58" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>10</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="6"/>
+        <v>282</v>
+      </c>
+      <c r="Q59" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>9</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="6"/>
+        <v>287</v>
+      </c>
+      <c r="Q60" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>8</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="6"/>
+        <v>294</v>
+      </c>
+      <c r="Q61" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>7</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="6"/>
+        <v>298</v>
+      </c>
+      <c r="Q62" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>6</v>
+      </c>
+      <c r="O63" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="6"/>
+        <v>298</v>
+      </c>
+      <c r="Q63" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="6"/>
+        <v>298</v>
+      </c>
+      <c r="Q64" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="6"/>
+        <v>327</v>
+      </c>
+      <c r="Q65" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="6"/>
+        <v>361</v>
+      </c>
+      <c r="Q66" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O98" si="10">VLOOKUP(N67,G:K,3,0)</f>
+        <v>63</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="6"/>
+        <v>424</v>
+      </c>
+      <c r="Q67" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="P68">
+        <f t="shared" ref="P68:P69" si="11">P67+IFERROR(O68,0)</f>
+        <v>511</v>
+      </c>
+      <c r="Q68" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R68">
+        <f t="shared" ref="R68:R69" si="12">R67+IFERROR(Q68,0)</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="11"/>
+        <v>517</v>
+      </c>
+      <c r="Q69" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="12"/>
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>